--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_12_21.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_12_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>826379.496097581</v>
+        <v>823819.3119377155</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673437</v>
+        <v>603248.4937673428</v>
       </c>
     </row>
     <row r="9">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>111.1322116719191</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -710,22 +710,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>381.4859536980651</v>
       </c>
     </row>
     <row r="3">
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -829,13 +829,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>45.95308864453091</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
@@ -874,16 +874,16 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>81.21182540108224</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -902,16 +902,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>7.157261199727826</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
-        <v>240.1506241430267</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
         <v>65.70991267247049</v>
@@ -956,7 +956,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1060,19 +1060,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,22 +1099,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>14.09020001492271</v>
+        <v>27.82062748942978</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1136,19 +1136,19 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>188.0162570430082</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>266.4388874644142</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
         <v>65.70991267247049</v>
@@ -1184,16 +1184,16 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1294,22 +1294,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,25 +1339,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>212.6795414235183</v>
+        <v>163.965609577349</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>90.02522953108409</v>
+        <v>276.0830593329778</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1382,13 +1382,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.4296912136494</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>22.60777203238021</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>97.97552699114104</v>
+        <v>97.97552699114098</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>201.7640893793779</v>
       </c>
       <c r="U11" t="n">
         <v>250.9558092037176</v>
@@ -1464,10 +1464,10 @@
         <v>134.7362075312412</v>
       </c>
       <c r="H12" t="n">
-        <v>87.05432226458126</v>
+        <v>87.05432226458124</v>
       </c>
       <c r="I12" t="n">
-        <v>9.753166794035252</v>
+        <v>9.753166794035195</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1528,25 +1528,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>124.1004521009521</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.7927049400678</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>89.7150774703404</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>79.00824149146337</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>185.9226570076761</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>218.6059168754546</v>
       </c>
       <c r="U13" t="n">
         <v>286.1997994941144</v>
@@ -1588,7 +1588,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>53.93517861538788</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1604,10 +1604,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>332.442315526188</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>314.9813656337184</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>84.61259060081966</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T14" t="n">
         <v>199.1970568374742</v>
@@ -1701,7 +1701,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H15" t="n">
-        <v>84.02406320561457</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1765,25 +1765,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>7.018581172449412</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H16" t="n">
-        <v>66.74877385786668</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.80457674440905</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1847,7 +1847,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206826</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187869</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -2014,13 +2014,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>20.92847288552804</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,19 +2047,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016457</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>218.0379183711101</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2147,7 +2147,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560526</v>
       </c>
     </row>
     <row r="21">
@@ -2236,22 +2236,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>106.2078024559162</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>146.4339626465726</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>120.7871326503932</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2479,16 +2479,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>19.91555826189108</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>155.0500112286389</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2558,7 +2558,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206839</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2713,22 +2713,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>121.8000472740378</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>108.5813113004297</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016416</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2950,7 +2950,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>20.43112068613192</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2959,16 +2959,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>36.4306205949047</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187877</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3193,13 +3193,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>36.4306205949047</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>99.97427419833785</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3427,22 +3427,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833829</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3484,7 +3484,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>141.8888082957382</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3506,7 +3506,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.6830416206816</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,7 +3661,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -3676,10 +3676,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0.8253826161912485</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3721,7 +3721,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>166.6594061764986</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3901,19 +3901,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>99.97427419833829</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,7 +3946,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>123.797182079702</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -4138,10 +4138,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>83.06560892428134</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4150,7 +4150,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4189,7 +4189,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>80.33989744908975</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>848.1875530107163</v>
+        <v>1263.725694231566</v>
       </c>
       <c r="C2" t="n">
-        <v>479.2250360703046</v>
+        <v>1263.725694231566</v>
       </c>
       <c r="D2" t="n">
-        <v>479.2250360703046</v>
+        <v>1263.725694231566</v>
       </c>
       <c r="E2" t="n">
-        <v>479.2250360703046</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="F2" t="n">
-        <v>366.9702768057398</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G2" t="n">
-        <v>355.3059305704328</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H2" t="n">
         <v>51.2467865680031</v>
@@ -4328,13 +4328,13 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4358,22 +4358,22 @@
         <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U2" t="n">
-        <v>2308.758267664335</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="V2" t="n">
-        <v>1977.695380320764</v>
+        <v>2022.530799662409</v>
       </c>
       <c r="W2" t="n">
-        <v>1624.92672505065</v>
+        <v>2022.530799662409</v>
       </c>
       <c r="X2" t="n">
-        <v>1624.92672505065</v>
+        <v>1649.065041401329</v>
       </c>
       <c r="Y2" t="n">
-        <v>1234.787393074838</v>
+        <v>1263.725694231566</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057875</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
         <v>51.2467865680031</v>
@@ -4413,22 +4413,22 @@
         <v>298.3188265310613</v>
       </c>
       <c r="L3" t="n">
-        <v>932.4978103100997</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M3" t="n">
-        <v>1480.485115687205</v>
+        <v>956.284402521753</v>
       </c>
       <c r="N3" t="n">
-        <v>1867.77024428415</v>
+        <v>1590.463386300791</v>
       </c>
       <c r="O3" t="n">
-        <v>2199.840679460312</v>
+        <v>1967.526114878148</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>2214.708848710445</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4440,16 +4440,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>352.2580926322055</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="C4" t="n">
-        <v>352.2580926322055</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="D4" t="n">
-        <v>352.2580926322055</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="E4" t="n">
-        <v>352.2580926322055</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F4" t="n">
-        <v>352.2580926322055</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G4" t="n">
-        <v>305.8408313751036</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386098</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I4" t="n">
         <v>51.2467865680031</v>
@@ -4510,28 +4510,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T4" t="n">
-        <v>1413.467639269232</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U4" t="n">
-        <v>1124.34930177307</v>
+        <v>825.1371474485136</v>
       </c>
       <c r="V4" t="n">
-        <v>869.6648135671834</v>
+        <v>743.1050005787336</v>
       </c>
       <c r="W4" t="n">
-        <v>580.2476435302228</v>
+        <v>453.6878305417729</v>
       </c>
       <c r="X4" t="n">
-        <v>352.2580926322055</v>
+        <v>453.6878305417729</v>
       </c>
       <c r="Y4" t="n">
-        <v>352.2580926322055</v>
+        <v>232.8952513982428</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1545.153177427443</v>
+        <v>805.7846820932073</v>
       </c>
       <c r="C5" t="n">
-        <v>1545.153177427443</v>
+        <v>805.7846820932073</v>
       </c>
       <c r="D5" t="n">
-        <v>1186.887478820693</v>
+        <v>447.5189834864568</v>
       </c>
       <c r="E5" t="n">
-        <v>1186.887478820693</v>
+        <v>440.2894267190549</v>
       </c>
       <c r="F5" t="n">
-        <v>775.9015740310851</v>
+        <v>433.3439259698515</v>
       </c>
       <c r="G5" t="n">
-        <v>360.196823755374</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H5" t="n">
         <v>117.6204357321147</v>
@@ -4568,10 +4568,10 @@
         <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4604,13 +4604,13 @@
         <v>2308.758267664335</v>
       </c>
       <c r="W5" t="n">
-        <v>2308.758267664335</v>
+        <v>1955.989612394221</v>
       </c>
       <c r="X5" t="n">
-        <v>1935.292509403255</v>
+        <v>1582.523854133141</v>
       </c>
       <c r="Y5" t="n">
-        <v>1545.153177427443</v>
+        <v>1192.384522157329</v>
       </c>
     </row>
     <row r="6">
@@ -4620,49 +4620,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K6" t="n">
-        <v>614.5430248380226</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L6" t="n">
-        <v>909.2465818694943</v>
+        <v>932.4978103100997</v>
       </c>
       <c r="M6" t="n">
-        <v>1272.508600828714</v>
+        <v>1480.485115687205</v>
       </c>
       <c r="N6" t="n">
-        <v>1659.79372942566</v>
+        <v>1867.77024428415</v>
       </c>
       <c r="O6" t="n">
-        <v>1991.864164601821</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P6" t="n">
-        <v>2239.046898434118</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4677,7 +4677,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4686,7 +4686,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>918.7469765594642</v>
+        <v>348.2533734782492</v>
       </c>
       <c r="C7" t="n">
-        <v>918.7469765594642</v>
+        <v>348.2533734782492</v>
       </c>
       <c r="D7" t="n">
-        <v>768.6303371471284</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="E7" t="n">
-        <v>620.7172435647353</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F7" t="n">
-        <v>473.8272960668249</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G7" t="n">
-        <v>305.8408313751036</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386098</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I7" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
@@ -4738,37 +4738,37 @@
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T7" t="n">
-        <v>1636.446120074497</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U7" t="n">
-        <v>1636.446120074497</v>
+        <v>825.1371474485136</v>
       </c>
       <c r="V7" t="n">
-        <v>1381.76163186861</v>
+        <v>825.1371474485136</v>
       </c>
       <c r="W7" t="n">
-        <v>1367.529106601012</v>
+        <v>797.0355035197966</v>
       </c>
       <c r="X7" t="n">
-        <v>1139.539555702994</v>
+        <v>569.0459526217793</v>
       </c>
       <c r="Y7" t="n">
-        <v>918.7469765594642</v>
+        <v>348.2533734782492</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1134.226501951987</v>
+        <v>1067.6853146838</v>
       </c>
       <c r="C8" t="n">
-        <v>1134.226501951987</v>
+        <v>1067.6853146838</v>
       </c>
       <c r="D8" t="n">
-        <v>944.3110907974335</v>
+        <v>709.4196160770491</v>
       </c>
       <c r="E8" t="n">
-        <v>944.3110907974335</v>
+        <v>440.2894267190549</v>
       </c>
       <c r="F8" t="n">
-        <v>533.3251860078259</v>
+        <v>433.3439259698515</v>
       </c>
       <c r="G8" t="n">
-        <v>117.6204357321147</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H8" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
         <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4829,25 +4829,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926625</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>2228.89447953245</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U8" t="n">
-        <v>2228.89447953245</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="V8" t="n">
-        <v>1897.831592188879</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="W8" t="n">
-        <v>1897.831592188879</v>
+        <v>1831.290404920691</v>
       </c>
       <c r="X8" t="n">
-        <v>1524.365833927799</v>
+        <v>1457.824646659611</v>
       </c>
       <c r="Y8" t="n">
-        <v>1134.226501951987</v>
+        <v>1067.6853146838</v>
       </c>
     </row>
     <row r="9">
@@ -4857,52 +4857,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K9" t="n">
-        <v>614.5430248380226</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L9" t="n">
-        <v>909.2465818694943</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M9" t="n">
-        <v>1272.508600828714</v>
+        <v>1227.201367341571</v>
       </c>
       <c r="N9" t="n">
-        <v>1659.79372942566</v>
+        <v>1861.38035112061</v>
       </c>
       <c r="O9" t="n">
-        <v>1991.864164601821</v>
+        <v>2193.450786296771</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.046898434118</v>
+        <v>2440.633520129068</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400155</v>
+        <v>2555.949435236614</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4914,7 +4914,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4923,7 +4923,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>938.9442613508774</v>
+        <v>220.18296949591</v>
       </c>
       <c r="C10" t="n">
-        <v>770.0080784229705</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="D10" t="n">
-        <v>619.8914390106347</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E10" t="n">
-        <v>471.9783454282416</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F10" t="n">
-        <v>325.0883979303312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G10" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
         <v>76.71595955312198</v>
@@ -4975,10 +4975,10 @@
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
@@ -4987,25 +4987,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="T10" t="n">
-        <v>1421.618300454782</v>
+        <v>1274.19554437845</v>
       </c>
       <c r="U10" t="n">
-        <v>1421.618300454782</v>
+        <v>985.0772068822877</v>
       </c>
       <c r="V10" t="n">
-        <v>1166.933812248895</v>
+        <v>730.3927186764008</v>
       </c>
       <c r="W10" t="n">
-        <v>1166.933812248895</v>
+        <v>440.9755486394401</v>
       </c>
       <c r="X10" t="n">
-        <v>938.9442613508774</v>
+        <v>440.9755486394401</v>
       </c>
       <c r="Y10" t="n">
-        <v>938.9442613508774</v>
+        <v>220.18296949591</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1739.06094317357</v>
+        <v>1535.258832689352</v>
       </c>
       <c r="C11" t="n">
-        <v>1648.126367889647</v>
+        <v>1256.387055585335</v>
       </c>
       <c r="D11" t="n">
-        <v>1289.860669282897</v>
+        <v>898.1213569785843</v>
       </c>
       <c r="E11" t="n">
-        <v>904.0724166846524</v>
+        <v>512.33310438034</v>
       </c>
       <c r="F11" t="n">
-        <v>493.0865118950447</v>
+        <v>101.3471995907325</v>
       </c>
       <c r="G11" t="n">
-        <v>78.5110662246918</v>
+        <v>101.3471995907325</v>
       </c>
       <c r="H11" t="n">
-        <v>78.5110662246918</v>
+        <v>101.3471995907325</v>
       </c>
       <c r="I11" t="n">
-        <v>78.5110662246918</v>
+        <v>78.51106622469189</v>
       </c>
       <c r="J11" t="n">
-        <v>308.733397138683</v>
+        <v>308.7333971386838</v>
       </c>
       <c r="K11" t="n">
-        <v>704.5155104420317</v>
+        <v>704.5155104420332</v>
       </c>
       <c r="L11" t="n">
-        <v>1232.419981301225</v>
+        <v>1232.419981301226</v>
       </c>
       <c r="M11" t="n">
-        <v>1851.48485887811</v>
+        <v>1851.484858878111</v>
       </c>
       <c r="N11" t="n">
-        <v>2485.180661765425</v>
+        <v>2485.180661765427</v>
       </c>
       <c r="O11" t="n">
-        <v>3070.2263776871</v>
+        <v>3070.226377687104</v>
       </c>
       <c r="P11" t="n">
-        <v>3535.048359856281</v>
+        <v>3535.048359856285</v>
       </c>
       <c r="Q11" t="n">
-        <v>3835.93756388224</v>
+        <v>3835.937563882244</v>
       </c>
       <c r="R11" t="n">
-        <v>3925.55331123459</v>
+        <v>3925.553311234594</v>
       </c>
       <c r="S11" t="n">
-        <v>3826.58813245566</v>
+        <v>3826.588132455664</v>
       </c>
       <c r="T11" t="n">
-        <v>3826.58813245566</v>
+        <v>3622.786021971444</v>
       </c>
       <c r="U11" t="n">
-        <v>3573.097416088269</v>
+        <v>3369.295305604051</v>
       </c>
       <c r="V11" t="n">
-        <v>3242.034528744698</v>
+        <v>3038.23241826048</v>
       </c>
       <c r="W11" t="n">
-        <v>2889.265873474584</v>
+        <v>2685.463762990365</v>
       </c>
       <c r="X11" t="n">
-        <v>2515.800115213504</v>
+        <v>2311.998004729286</v>
       </c>
       <c r="Y11" t="n">
-        <v>2125.660783237692</v>
+        <v>1921.858672753474</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5112,34 @@
         <v>176.2964087081428</v>
       </c>
       <c r="H12" t="n">
-        <v>88.36274985503044</v>
+        <v>88.36274985503047</v>
       </c>
       <c r="I12" t="n">
-        <v>78.5110662246918</v>
+        <v>78.51106622469189</v>
       </c>
       <c r="J12" t="n">
-        <v>196.8120623792128</v>
+        <v>196.812062379213</v>
       </c>
       <c r="K12" t="n">
-        <v>477.1621322376501</v>
+        <v>477.1621322376506</v>
       </c>
       <c r="L12" t="n">
-        <v>480.11710868439</v>
+        <v>900.4499396649603</v>
       </c>
       <c r="M12" t="n">
-        <v>993.4308829282792</v>
+        <v>1413.76371390885</v>
       </c>
       <c r="N12" t="n">
-        <v>1534.739190279346</v>
+        <v>1955.072021259917</v>
       </c>
       <c r="O12" t="n">
-        <v>2007.710743145095</v>
+        <v>1991.670362601622</v>
       </c>
       <c r="P12" t="n">
-        <v>2367.979045985249</v>
+        <v>2351.938665441777</v>
       </c>
       <c r="Q12" t="n">
-        <v>2558.889669173201</v>
+        <v>2542.849288629729</v>
       </c>
       <c r="R12" t="n">
         <v>2558.889669173201</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>927.223275514337</v>
+        <v>203.8650582458557</v>
       </c>
       <c r="C13" t="n">
-        <v>758.2870925864302</v>
+        <v>203.8650582458556</v>
       </c>
       <c r="D13" t="n">
-        <v>608.1704531740945</v>
+        <v>78.51106622469189</v>
       </c>
       <c r="E13" t="n">
-        <v>460.2573595917014</v>
+        <v>78.51106622469189</v>
       </c>
       <c r="F13" t="n">
-        <v>313.367412093791</v>
+        <v>78.51106622469189</v>
       </c>
       <c r="G13" t="n">
-        <v>313.367412093791</v>
+        <v>78.51106622469189</v>
       </c>
       <c r="H13" t="n">
-        <v>169.132356598773</v>
+        <v>78.51106622469189</v>
       </c>
       <c r="I13" t="n">
-        <v>78.5110662246918</v>
+        <v>78.51106622469189</v>
       </c>
       <c r="J13" t="n">
-        <v>139.0818334600399</v>
+        <v>139.0818334600401</v>
       </c>
       <c r="K13" t="n">
-        <v>368.4550473457703</v>
+        <v>368.4550473457705</v>
       </c>
       <c r="L13" t="n">
-        <v>717.5002252888914</v>
+        <v>717.5002252888919</v>
       </c>
       <c r="M13" t="n">
         <v>1095.908548779221</v>
       </c>
       <c r="N13" t="n">
-        <v>1470.753784542993</v>
+        <v>1470.753784542994</v>
       </c>
       <c r="O13" t="n">
-        <v>1800.967734715848</v>
+        <v>1800.967734715849</v>
       </c>
       <c r="P13" t="n">
-        <v>2060.00213308252</v>
+        <v>2060.002133082522</v>
       </c>
       <c r="Q13" t="n">
-        <v>2155.909043551104</v>
+        <v>2155.909043551105</v>
       </c>
       <c r="R13" t="n">
-        <v>2155.909043551104</v>
+        <v>2076.102739014274</v>
       </c>
       <c r="S13" t="n">
-        <v>2155.909043551104</v>
+        <v>1888.302075370156</v>
       </c>
       <c r="T13" t="n">
-        <v>2155.909043551104</v>
+        <v>1667.488017920202</v>
       </c>
       <c r="U13" t="n">
-        <v>1866.818336991393</v>
+        <v>1378.39731136049</v>
       </c>
       <c r="V13" t="n">
-        <v>1612.133848785506</v>
+        <v>1123.712823154603</v>
       </c>
       <c r="W13" t="n">
-        <v>1557.653870386124</v>
+        <v>834.2956531176428</v>
       </c>
       <c r="X13" t="n">
-        <v>1329.664319488107</v>
+        <v>606.3061022196255</v>
       </c>
       <c r="Y13" t="n">
-        <v>1108.871740344577</v>
+        <v>385.5135230760953</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.224468905844</v>
+        <v>2266.424947555046</v>
       </c>
       <c r="C14" t="n">
         <v>1948.261951965432</v>
@@ -5267,61 +5267,61 @@
         <v>793.22209597083</v>
       </c>
       <c r="G14" t="n">
-        <v>379.2389888872364</v>
+        <v>379.2389888872365</v>
       </c>
       <c r="H14" t="n">
-        <v>92.81162322608048</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I14" t="n">
-        <v>92.81162322608048</v>
+        <v>92.81162322608057</v>
       </c>
       <c r="J14" t="n">
-        <v>372.3074987251932</v>
+        <v>372.3074987251948</v>
       </c>
       <c r="K14" t="n">
-        <v>841.9378825128749</v>
+        <v>841.9378825128767</v>
       </c>
       <c r="L14" t="n">
-        <v>1461.45766301865</v>
+        <v>1461.457663018652</v>
       </c>
       <c r="M14" t="n">
-        <v>2182.462224957688</v>
+        <v>2182.46222495769</v>
       </c>
       <c r="N14" t="n">
-        <v>2919.747202874794</v>
+        <v>2919.747202874796</v>
       </c>
       <c r="O14" t="n">
-        <v>3602.609239333932</v>
+        <v>3602.609239333934</v>
       </c>
       <c r="P14" t="n">
-        <v>4150.915188021279</v>
+        <v>4150.915188021282</v>
       </c>
       <c r="Q14" t="n">
-        <v>4514.497374127286</v>
+        <v>4514.49737412729</v>
       </c>
       <c r="R14" t="n">
-        <v>4640.581161304024</v>
+        <v>4640.581161304028</v>
       </c>
       <c r="S14" t="n">
-        <v>4555.113898070873</v>
+        <v>4555.113898070877</v>
       </c>
       <c r="T14" t="n">
-        <v>4353.904749750192</v>
+        <v>4353.904749750195</v>
       </c>
       <c r="U14" t="n">
-        <v>4100.461420469741</v>
+        <v>4100.461420469745</v>
       </c>
       <c r="V14" t="n">
-        <v>3769.39853312617</v>
+        <v>3769.398533126174</v>
       </c>
       <c r="W14" t="n">
-        <v>3416.629877856056</v>
+        <v>3416.629877856059</v>
       </c>
       <c r="X14" t="n">
-        <v>3043.164119594976</v>
+        <v>3043.16411959498</v>
       </c>
       <c r="Y14" t="n">
-        <v>2653.024787619164</v>
+        <v>2653.024787619168</v>
       </c>
     </row>
     <row r="15">
@@ -5343,28 +5343,28 @@
         <v>459.9992225560484</v>
       </c>
       <c r="F15" t="n">
-        <v>313.4646645829333</v>
+        <v>313.4646645829334</v>
       </c>
       <c r="G15" t="n">
         <v>177.6844143428629</v>
       </c>
       <c r="H15" t="n">
-        <v>92.81162322608048</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I15" t="n">
-        <v>92.81162322608048</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J15" t="n">
-        <v>240.4596049779263</v>
+        <v>240.4596049779265</v>
       </c>
       <c r="K15" t="n">
-        <v>240.4596049779263</v>
+        <v>570.9683475412853</v>
       </c>
       <c r="L15" t="n">
-        <v>240.4596049779263</v>
+        <v>1061.700680385037</v>
       </c>
       <c r="M15" t="n">
-        <v>733.658398959387</v>
+        <v>1061.700680385037</v>
       </c>
       <c r="N15" t="n">
         <v>1355.754362358723</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>561.9183350635715</v>
+        <v>561.9183350635722</v>
       </c>
       <c r="C16" t="n">
-        <v>392.9821521356646</v>
+        <v>554.8288591318053</v>
       </c>
       <c r="D16" t="n">
-        <v>242.8655127233287</v>
+        <v>554.8288591318053</v>
       </c>
       <c r="E16" t="n">
-        <v>242.8655127233287</v>
+        <v>406.9157655494122</v>
       </c>
       <c r="F16" t="n">
-        <v>242.8655127233287</v>
+        <v>260.0258180515018</v>
       </c>
       <c r="G16" t="n">
-        <v>242.8655127233287</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="H16" t="n">
-        <v>175.4425088264937</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I16" t="n">
-        <v>92.81162322608048</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J16" t="n">
-        <v>171.7937461156343</v>
+        <v>171.7937461156345</v>
       </c>
       <c r="K16" t="n">
-        <v>431.4224730861979</v>
+        <v>431.4224730861982</v>
       </c>
       <c r="L16" t="n">
-        <v>819.184291169332</v>
+        <v>819.1842911693325</v>
       </c>
       <c r="M16" t="n">
-        <v>1238.413883213791</v>
+        <v>1238.413883213792</v>
       </c>
       <c r="N16" t="n">
-        <v>1653.109749005498</v>
+        <v>1653.109749005499</v>
       </c>
       <c r="O16" t="n">
-        <v>2020.132206020527</v>
+        <v>2020.132206020528</v>
       </c>
       <c r="P16" t="n">
-        <v>2310.662640856732</v>
+        <v>2310.662640856733</v>
       </c>
       <c r="Q16" t="n">
-        <v>2428.375774410167</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="R16" t="n">
-        <v>2428.375774410167</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="S16" t="n">
-        <v>2245.205584149097</v>
+        <v>2245.205584149098</v>
       </c>
       <c r="T16" t="n">
-        <v>2025.526801863479</v>
+        <v>2025.52680186348</v>
       </c>
       <c r="U16" t="n">
-        <v>1736.450588178206</v>
+        <v>1736.450588178207</v>
       </c>
       <c r="V16" t="n">
-        <v>1481.766099972319</v>
+        <v>1481.76609997232</v>
       </c>
       <c r="W16" t="n">
         <v>1192.348929935359</v>
       </c>
       <c r="X16" t="n">
-        <v>964.3593790373413</v>
+        <v>964.359379037342</v>
       </c>
       <c r="Y16" t="n">
-        <v>743.5667998938112</v>
+        <v>743.5667998938119</v>
       </c>
     </row>
     <row r="17">
@@ -5489,10 +5489,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5510,16 +5510,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
         <v>2206.55866301478</v>
@@ -5534,7 +5534,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5546,19 +5546,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M18" t="n">
-        <v>691.1951506745238</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N18" t="n">
-        <v>1318.79311422913</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>950.7540666811331</v>
+        <v>580.8993044876681</v>
       </c>
       <c r="C19" t="n">
-        <v>781.8178837532262</v>
+        <v>411.9631215597612</v>
       </c>
       <c r="D19" t="n">
-        <v>631.7012443408905</v>
+        <v>261.8464821474254</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408905</v>
+        <v>261.8464821474254</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>114.9565346495151</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5674,19 +5674,19 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235164</v>
       </c>
       <c r="T19" t="n">
-        <v>2379.917379832663</v>
+        <v>2044.506784258105</v>
       </c>
       <c r="U19" t="n">
-        <v>2090.842153176861</v>
+        <v>1755.431557602303</v>
       </c>
       <c r="V19" t="n">
-        <v>1870.601831589881</v>
+        <v>1500.747069396416</v>
       </c>
       <c r="W19" t="n">
-        <v>1581.18466155292</v>
+        <v>1211.329899359455</v>
       </c>
       <c r="X19" t="n">
-        <v>1353.195110654903</v>
+        <v>983.340348461438</v>
       </c>
       <c r="Y19" t="n">
-        <v>1132.402531511373</v>
+        <v>762.5477693179079</v>
       </c>
     </row>
     <row r="20">
@@ -5747,25 +5747,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5826,28 +5826,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>352.5519571452614</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M21" t="n">
-        <v>949.9304447718133</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.52840832642</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>874.8686257536381</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C22" t="n">
-        <v>705.9324428257312</v>
+        <v>513.853600740071</v>
       </c>
       <c r="D22" t="n">
-        <v>555.8158034133954</v>
+        <v>363.7369613277351</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310023</v>
+        <v>215.8238677453388</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>215.8238677453388</v>
       </c>
       <c r="G22" t="n">
         <v>93.81666304797187</v>
@@ -5911,10 +5911,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1430.931364336515</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1202.941813438498</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y22" t="n">
-        <v>982.1492342949676</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="23">
@@ -5996,13 +5996,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6066,25 +6066,25 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L24" t="n">
-        <v>95.58405025273903</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
         <v>2516.421633107662</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>576.8388927589094</v>
+        <v>580.899304487669</v>
       </c>
       <c r="C25" t="n">
-        <v>407.9027098310025</v>
+        <v>411.9631215597622</v>
       </c>
       <c r="D25" t="n">
-        <v>407.9027098310025</v>
+        <v>261.8464821474263</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310025</v>
+        <v>113.9333885650333</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330923</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
         <v>93.81666304797187</v>
@@ -6151,46 +6151,46 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>2040.446372529346</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1751.371145873544</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1496.686657667657</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1207.269487630697</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>979.2799367326793</v>
+        <v>983.3403484614389</v>
       </c>
       <c r="Y25" t="n">
-        <v>758.4873575891492</v>
+        <v>762.5477693179088</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6203,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6257,16 +6257,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6303,19 +6303,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O27" t="n">
         <v>1859.536823237711</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>984.546717976294</v>
+        <v>513.8536007400742</v>
       </c>
       <c r="C28" t="n">
-        <v>815.6105350483871</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D28" t="n">
-        <v>665.4938956360513</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E28" t="n">
-        <v>517.5808020536583</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F28" t="n">
-        <v>370.6908545557481</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>203.4947552706281</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6385,10 +6385,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.06254548757</v>
       </c>
       <c r="T28" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510511</v>
       </c>
       <c r="U28" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854709</v>
       </c>
       <c r="V28" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648822</v>
       </c>
       <c r="W28" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611861</v>
       </c>
       <c r="X28" t="n">
-        <v>1166.195182806534</v>
+        <v>916.294644713844</v>
       </c>
       <c r="Y28" t="n">
-        <v>1166.195182806534</v>
+        <v>695.5020655703139</v>
       </c>
     </row>
     <row r="29">
@@ -6437,43 +6437,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6482,7 +6482,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M30" t="n">
-        <v>691.1951506745238</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N30" t="n">
-        <v>1318.79311422913</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>763.7541388327647</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>594.8179559048579</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D31" t="n">
-        <v>444.701316492522</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E31" t="n">
-        <v>444.701316492522</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F31" t="n">
-        <v>297.8113689946117</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G31" t="n">
-        <v>130.6152697094915</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6634,7 +6634,7 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1394.184733704552</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>1166.195182806535</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>945.4026036630045</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6689,10 +6689,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192593</v>
@@ -6701,19 +6701,19 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6774,22 +6774,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>680.0291294438176</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O33" t="n">
         <v>1859.536823237711</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>763.7541388327647</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C34" t="n">
-        <v>594.8179559048579</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="D34" t="n">
-        <v>444.701316492522</v>
+        <v>194.8007783998282</v>
       </c>
       <c r="E34" t="n">
-        <v>407.9027098310023</v>
+        <v>194.8007783998282</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
         <v>93.81666304797187</v>
@@ -6859,10 +6859,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
@@ -6874,34 +6874,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q34" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1394.184733704552</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1166.195182806535</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y34" t="n">
-        <v>945.4026036630045</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="35">
@@ -6941,13 +6941,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M36" t="n">
-        <v>691.1951506745238</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="N36" t="n">
-        <v>1318.79311422913</v>
+        <v>1552.432392194325</v>
       </c>
       <c r="O36" t="n">
-        <v>1870.702844468417</v>
+        <v>2104.342122433612</v>
       </c>
       <c r="P36" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.9487421954784</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C37" t="n">
-        <v>491.0125592675715</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="D37" t="n">
-        <v>491.0125592675714</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="E37" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F37" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7132,13 +7132,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1290.379337067266</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>1062.389786169248</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y37" t="n">
-        <v>841.5972070257181</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="38">
@@ -7148,10 +7148,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7163,28 +7163,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7193,31 +7193,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349511</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M39" t="n">
-        <v>1520.445529061503</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N39" t="n">
-        <v>2148.04349261611</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>634.9279362553159</v>
+        <v>580.899304487669</v>
       </c>
       <c r="C40" t="n">
-        <v>634.9279362553159</v>
+        <v>411.9631215597622</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429802</v>
+        <v>261.8464821474263</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429802</v>
+        <v>261.8464821474263</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>261.8464821474263</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>94.65038286230634</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>94.65038286230634</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W40" t="n">
-        <v>1265.358531127103</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X40" t="n">
-        <v>1037.368980229086</v>
+        <v>983.3403484614389</v>
       </c>
       <c r="Y40" t="n">
-        <v>816.5764010855556</v>
+        <v>762.5477693179088</v>
       </c>
     </row>
     <row r="41">
@@ -7397,31 +7397,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1320.560501433898</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>1872.470231673185</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2296.093381168253</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2529.355041543135</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188007</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7582,7 +7582,7 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533435</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925705</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490404</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="44">
@@ -7634,31 +7634,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7734,19 +7734,19 @@
         <v>923.0670414349511</v>
       </c>
       <c r="M45" t="n">
-        <v>1520.445529061503</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N45" t="n">
-        <v>2148.04349261611</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>721.7774158311365</v>
+        <v>513.8536007400708</v>
       </c>
       <c r="C46" t="n">
-        <v>552.8412329032296</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="D46" t="n">
-        <v>402.724593490894</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="E46" t="n">
-        <v>402.724593490894</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
-        <v>402.724593490894</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7837,19 +7837,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1896.309668945771</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1641.625180739884</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1352.208010702924</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1124.218459804906</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y46" t="n">
-        <v>903.4258806613763</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
   </sheetData>
@@ -8061,25 +8061,25 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>342.9044714621886</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>186.5911984019044</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>249.3877325071649</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>45.44676101130824</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8292,16 +8292,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>193.3273467878349</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>342.9044714621886</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>186.5911984019044</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8313,10 +8313,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8529,19 +8529,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>193.3273467878349</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>273.6534998179984</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>249.387732507165</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8550,10 +8550,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.9377812015499</v>
+        <v>27.39221874048003</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23258,7 +23258,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>275.2476622399234</v>
+        <v>89.18983243802973</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23270,13 +23270,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.4296912136494</v>
       </c>
       <c r="H11" t="n">
-        <v>289.5687166806773</v>
+        <v>289.5687166806772</v>
       </c>
       <c r="I11" t="n">
-        <v>22.60777203238032</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,7 +23309,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>201.7640893793779</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>24.51502091726023</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.8050985482227</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.7927049400678</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>89.71507747034036</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.00824149146341</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>185.9226570076762</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>218.6059168754546</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23476,7 +23476,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>232.5878197212031</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23492,10 +23492,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>50.29152613729258</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>50.29152613728917</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>160.2282399261784</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>73.70521593408724</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>67.18075159108359</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23744,7 +23744,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>-2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23902,13 +23902,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>144.5956654067408</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,19 +23935,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>34.09972495271791</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24124,10 +24124,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>73.62417772602114</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24136,10 +24136,10 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>44.73700564187564</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24367,16 +24367,16 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>125.5054897610402</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>62.35543909864937</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24601,22 +24601,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>45.44677382459008</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>31.71340154579421</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24838,7 +24838,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>146.8157004124959</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24847,16 +24847,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>103.8640922513192</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25081,13 +25081,13 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>110.0033420516645</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>45.44677382459339</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -25120,10 +25120,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671011796</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25315,22 +25315,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>46.45968844823088</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25372,7 +25372,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>144.6341900408528</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25549,7 +25549,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>80.44045370237427</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25609,7 +25609,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>119.8635921600924</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25789,19 +25789,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>45.44677382459295</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25834,7 +25834,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>57.22910392194259</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26026,10 +26026,10 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>63.36835372228784</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26038,7 +26038,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26077,7 +26077,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>205.8445769401544</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>910213.0161799529</v>
+        <v>910213.0161799532</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>990602.0478367358</v>
+        <v>990602.0478367361</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>996073.9122004057</v>
+        <v>996073.9122004055</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>996073.9122004056</v>
+        <v>996073.9122004055</v>
       </c>
     </row>
     <row r="9">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>996073.9122004057</v>
+        <v>996073.9122004055</v>
       </c>
     </row>
     <row r="13">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>996073.9122004056</v>
+        <v>996073.9122004055</v>
       </c>
     </row>
   </sheetData>
@@ -26311,37 +26311,37 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>431046.9291787485</v>
+      </c>
+      <c r="C2" t="n">
         <v>431046.9291787487</v>
       </c>
-      <c r="C2" t="n">
-        <v>431046.9291787486</v>
-      </c>
       <c r="D2" t="n">
-        <v>431046.9291787486</v>
+        <v>431046.9291787488</v>
       </c>
       <c r="E2" t="n">
-        <v>386954.4379713451</v>
+        <v>386954.437971345</v>
       </c>
       <c r="F2" t="n">
         <v>421406.880109966</v>
       </c>
       <c r="G2" t="n">
-        <v>423751.9648372534</v>
+        <v>423751.9648372532</v>
       </c>
       <c r="H2" t="n">
         <v>423751.9648372532</v>
       </c>
       <c r="I2" t="n">
-        <v>423751.9648372531</v>
+        <v>423751.9648372533</v>
       </c>
       <c r="J2" t="n">
         <v>423751.9648372532</v>
       </c>
       <c r="K2" t="n">
-        <v>423751.9648372532</v>
+        <v>423751.9648372533</v>
       </c>
       <c r="L2" t="n">
-        <v>423751.9648372532</v>
+        <v>423751.9648372533</v>
       </c>
       <c r="M2" t="n">
         <v>423751.9648372532</v>
@@ -26350,10 +26350,10 @@
         <v>423751.9648372532</v>
       </c>
       <c r="O2" t="n">
+        <v>423751.9648372532</v>
+      </c>
+      <c r="P2" t="n">
         <v>423751.9648372533</v>
-      </c>
-      <c r="P2" t="n">
-        <v>423751.9648372532</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325187.1190357062</v>
+        <v>325187.1190357071</v>
       </c>
       <c r="F3" t="n">
-        <v>166521.3471051378</v>
+        <v>166521.3471051376</v>
       </c>
       <c r="G3" t="n">
-        <v>11167.23623557934</v>
+        <v>11167.23623557874</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26396,13 +26396,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>84929.59434456815</v>
+        <v>84929.59434456838</v>
       </c>
       <c r="N3" t="n">
-        <v>43782.406558489</v>
+        <v>43782.40655848919</v>
       </c>
       <c r="O3" t="n">
-        <v>3023.297977224857</v>
+        <v>3023.297977224429</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26427,7 +26427,7 @@
         <v>8018.191469425932</v>
       </c>
       <c r="F4" t="n">
-        <v>8110.779805506622</v>
+        <v>8110.779805506623</v>
       </c>
       <c r="G4" t="n">
         <v>8117.312426731974</v>
@@ -26451,7 +26451,7 @@
         <v>8117.312426731974</v>
       </c>
       <c r="N4" t="n">
-        <v>8117.312426732036</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="O4" t="n">
         <v>8117.312426731974</v>
@@ -26476,7 +26476,7 @@
         <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
-        <v>86093.72216214708</v>
+        <v>86093.72216214715</v>
       </c>
       <c r="F5" t="n">
         <v>100142.1285138384</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-910960.6270988791</v>
+        <v>-910960.6270988793</v>
       </c>
       <c r="C6" t="n">
         <v>203791.1564770402</v>
       </c>
       <c r="D6" t="n">
-        <v>203791.1564770402</v>
+        <v>203791.1564770403</v>
       </c>
       <c r="E6" t="n">
-        <v>-32344.59469593402</v>
+        <v>-32554.55893977992</v>
       </c>
       <c r="F6" t="n">
-        <v>146632.6246854832</v>
+        <v>146586.7196899178</v>
       </c>
       <c r="G6" t="n">
-        <v>303344.8863510349</v>
+        <v>303310.1484255996</v>
       </c>
       <c r="H6" t="n">
-        <v>314512.122586614</v>
+        <v>314477.3846611783</v>
       </c>
       <c r="I6" t="n">
-        <v>314512.122586614</v>
+        <v>314477.3846611785</v>
       </c>
       <c r="J6" t="n">
-        <v>146906.9447766316</v>
+        <v>146872.2068511959</v>
       </c>
       <c r="K6" t="n">
-        <v>314512.1225866141</v>
+        <v>314477.3846611785</v>
       </c>
       <c r="L6" t="n">
-        <v>314512.122586614</v>
+        <v>314477.3846611785</v>
       </c>
       <c r="M6" t="n">
-        <v>229582.528242046</v>
+        <v>229547.79031661</v>
       </c>
       <c r="N6" t="n">
-        <v>270729.716028125</v>
+        <v>270694.9781026891</v>
       </c>
       <c r="O6" t="n">
-        <v>311488.8246093893</v>
+        <v>311454.0866839539</v>
       </c>
       <c r="P6" t="n">
-        <v>314512.1225866141</v>
+        <v>314477.3846611785</v>
       </c>
     </row>
   </sheetData>
@@ -26738,16 +26738,16 @@
         <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
         <v>1212.170267494556</v>
       </c>
       <c r="F3" t="n">
-        <v>1358.041048716385</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="G3" t="n">
         <v>1367.975500341674</v>
@@ -26793,13 +26793,13 @@
         <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
-        <v>981.3883278086475</v>
+        <v>981.3883278086486</v>
       </c>
       <c r="F4" t="n">
-        <v>1160.145290326006</v>
+        <v>1160.145290326007</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26966,13 +26966,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1053753770165</v>
+        <v>278.1053753770173</v>
       </c>
       <c r="F3" t="n">
-        <v>145.8707812218297</v>
+        <v>145.8707812218295</v>
       </c>
       <c r="G3" t="n">
-        <v>9.934451625288375</v>
+        <v>9.93445162528792</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26993,7 +26993,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27018,13 +27018,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>340.8034957086088</v>
+        <v>340.8034957086097</v>
       </c>
       <c r="F4" t="n">
-        <v>178.7569625173585</v>
+        <v>178.7569625173584</v>
       </c>
       <c r="G4" t="n">
-        <v>12.56299777364234</v>
+        <v>12.56299777364143</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27042,13 +27042,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>340.8034957086088</v>
+        <v>340.8034957086097</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173583</v>
+        <v>178.7569625173584</v>
       </c>
       <c r="O4" t="n">
-        <v>12.56299777364256</v>
+        <v>12.56299777364143</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27264,13 +27264,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>340.8034957086088</v>
+        <v>340.8034957086097</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173585</v>
+        <v>178.7569625173584</v>
       </c>
       <c r="O4" t="n">
-        <v>12.56299777364234</v>
+        <v>12.56299777364143</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,25 +27376,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>295.7438340697923</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
         <v>65.70991267247049</v>
@@ -27430,22 +27430,22 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>4.751984957988498</v>
       </c>
     </row>
     <row r="3">
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27549,13 +27549,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>120.3535114002733</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,10 +27582,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27594,16 +27594,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>170.9258179227458</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27622,16 +27622,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>374.773108872534</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>60.8679284193787</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27676,7 +27676,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27780,19 +27780,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,22 +27819,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>272.4327983216683</v>
+        <v>258.7023708471612</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27856,19 +27856,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>166.6667845776747</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>115.4914826078476</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27904,16 +27904,16 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28014,22 +28014,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,25 +28059,25 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>8.069154573693652</v>
+        <v>56.78308641986291</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28567,7 +28567,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -28770,7 +28770,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>-1.131184035330079e-12</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -28867,7 +28867,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>1.023181539494544e-12</v>
       </c>
     </row>
     <row r="21">
@@ -28965,7 +28965,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>-3.393552105990239e-12</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -29278,7 +29278,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>-9.083521204892939e-13</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -29481,7 +29481,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>3.012701199622825e-12</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>-1.122586111170731e-12</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29952,7 +29952,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>3.723243935382925e-12</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -30226,7 +30226,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -31279,43 +31279,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31358,10 +31358,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31370,7 +31370,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
         <v>509.0653662040588</v>
@@ -31379,25 +31379,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,7 +31440,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31455,10 +31455,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31470,13 +31470,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31516,43 +31516,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31595,10 +31595,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31607,7 +31607,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
         <v>509.0653662040588</v>
@@ -31616,25 +31616,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31677,7 +31677,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31692,10 +31692,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31707,13 +31707,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.873046301485648</v>
+        <v>4.87304630148565</v>
       </c>
       <c r="H11" t="n">
-        <v>49.9060854350899</v>
+        <v>49.90608543508993</v>
       </c>
       <c r="I11" t="n">
-        <v>187.8681175380256</v>
+        <v>187.8681175380257</v>
       </c>
       <c r="J11" t="n">
-        <v>413.5937135307178</v>
+        <v>413.593713530718</v>
       </c>
       <c r="K11" t="n">
-        <v>619.8697634726054</v>
+        <v>619.8697634726058</v>
       </c>
       <c r="L11" t="n">
-        <v>769.0032542216969</v>
+        <v>769.0032542216974</v>
       </c>
       <c r="M11" t="n">
-        <v>855.6642913857423</v>
+        <v>855.6642913857428</v>
       </c>
       <c r="N11" t="n">
-        <v>869.5098341898384</v>
+        <v>869.5098341898389</v>
       </c>
       <c r="O11" t="n">
-        <v>821.0534800294405</v>
+        <v>821.0534800294409</v>
       </c>
       <c r="P11" t="n">
-        <v>700.7501494615135</v>
+        <v>700.7501494615138</v>
       </c>
       <c r="Q11" t="n">
-        <v>526.2341787895585</v>
+        <v>526.2341787895589</v>
       </c>
       <c r="R11" t="n">
-        <v>306.106494735698</v>
+        <v>306.1064947356982</v>
       </c>
       <c r="S11" t="n">
-        <v>111.0445425951043</v>
+        <v>111.0445425951044</v>
       </c>
       <c r="T11" t="n">
-        <v>21.33176018475343</v>
+        <v>21.33176018475345</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3898437041188517</v>
+        <v>0.3898437041188519</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.607309631969422</v>
+        <v>2.607309631969423</v>
       </c>
       <c r="H12" t="n">
-        <v>25.18112197191521</v>
+        <v>25.18112197191522</v>
       </c>
       <c r="I12" t="n">
-        <v>89.76921320596475</v>
+        <v>89.7692132059648</v>
       </c>
       <c r="J12" t="n">
-        <v>246.333582378304</v>
+        <v>246.3335823783042</v>
       </c>
       <c r="K12" t="n">
-        <v>421.0233277202553</v>
+        <v>421.0233277202555</v>
       </c>
       <c r="L12" t="n">
-        <v>141.5392044735509</v>
+        <v>566.1178216256417</v>
       </c>
       <c r="M12" t="n">
-        <v>660.6327957845327</v>
+        <v>660.6327957845331</v>
       </c>
       <c r="N12" t="n">
-        <v>678.1177801147138</v>
+        <v>678.1177801147142</v>
       </c>
       <c r="O12" t="n">
-        <v>620.3452877431807</v>
+        <v>179.5642660017227</v>
       </c>
       <c r="P12" t="n">
-        <v>497.8817840205469</v>
+        <v>497.8817840205472</v>
       </c>
       <c r="Q12" t="n">
-        <v>332.8207874071845</v>
+        <v>332.8207874071846</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>161.8819085533297</v>
       </c>
       <c r="S12" t="n">
-        <v>48.42963285697585</v>
+        <v>48.42963285697588</v>
       </c>
       <c r="T12" t="n">
         <v>10.50928750780657</v>
       </c>
       <c r="U12" t="n">
-        <v>0.171533528419041</v>
+        <v>0.1715335284190411</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.185880810236084</v>
+        <v>2.185880810236085</v>
       </c>
       <c r="H13" t="n">
-        <v>19.43446756737174</v>
+        <v>19.43446756737175</v>
       </c>
       <c r="I13" t="n">
-        <v>65.73539745691788</v>
+        <v>65.73539745691792</v>
       </c>
       <c r="J13" t="n">
-        <v>154.5417732836911</v>
+        <v>154.5417732836912</v>
       </c>
       <c r="K13" t="n">
-        <v>253.959606861974</v>
+        <v>253.9596068619742</v>
       </c>
       <c r="L13" t="n">
-        <v>324.9808615509174</v>
+        <v>324.9808615509176</v>
       </c>
       <c r="M13" t="n">
-        <v>342.6467528263708</v>
+        <v>342.646752826371</v>
       </c>
       <c r="N13" t="n">
-        <v>334.4993788973093</v>
+        <v>334.4993788973095</v>
       </c>
       <c r="O13" t="n">
-        <v>308.9643167050058</v>
+        <v>308.964316705006</v>
       </c>
       <c r="P13" t="n">
-        <v>264.3723481761895</v>
+        <v>264.3723481761897</v>
       </c>
       <c r="Q13" t="n">
-        <v>183.0377103916779</v>
+        <v>183.037710391678</v>
       </c>
       <c r="R13" t="n">
-        <v>98.28514988570608</v>
+        <v>98.28514988570612</v>
       </c>
       <c r="S13" t="n">
-        <v>38.0939410292961</v>
+        <v>38.09394102929613</v>
       </c>
       <c r="T13" t="n">
-        <v>9.339672552826901</v>
+        <v>9.339672552826906</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1192298623765138</v>
+        <v>0.1192298623765139</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.459461502377424</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H14" t="n">
-        <v>55.91171011122281</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I14" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>463.3649706874064</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K14" t="n">
-        <v>694.4639760830429</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L14" t="n">
-        <v>861.5439710364261</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M14" t="n">
-        <v>958.6336695293306</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N14" t="n">
-        <v>974.1453645229606</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O14" t="n">
-        <v>919.857844208695</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P14" t="n">
-        <v>785.0773883687522</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q14" t="n">
-        <v>589.5604233148605</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R14" t="n">
-        <v>342.9428985987162</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S14" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T14" t="n">
-        <v>23.89879272665719</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4367569201901939</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32066,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.921069425540904</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H15" t="n">
-        <v>28.2113810308819</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>275.9770021735817</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M15" t="n">
-        <v>640.3146339032917</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>759.7214730927636</v>
+        <v>428.3656332688745</v>
       </c>
       <c r="O15" t="n">
-        <v>694.9967242426203</v>
+        <v>694.9967242426205</v>
       </c>
       <c r="P15" t="n">
-        <v>557.7961431982452</v>
+        <v>557.7961431982454</v>
       </c>
       <c r="Q15" t="n">
-        <v>372.8719498286952</v>
+        <v>372.8719498286953</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.25758340862159</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T15" t="n">
-        <v>11.77395965821092</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U15" t="n">
         <v>0.1921756201013754</v>
@@ -32145,34 +32145,34 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.448926481291842</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H16" t="n">
         <v>21.77318271548567</v>
       </c>
       <c r="I16" t="n">
-        <v>73.64589818284924</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J16" t="n">
-        <v>173.1391022273332</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K16" t="n">
-        <v>284.5207311900885</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L16" t="n">
-        <v>364.0885788640618</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M16" t="n">
-        <v>383.8803574265021</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N16" t="n">
-        <v>374.7525405416873</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O16" t="n">
-        <v>346.1446266465962</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P16" t="n">
-        <v>296.1865264282423</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q16" t="n">
         <v>205.0641983561742</v>
@@ -32181,7 +32181,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S16" t="n">
-        <v>42.67810967851327</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T16" t="n">
         <v>10.46359496551969</v>
@@ -32309,13 +32309,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>138.5543797798742</v>
@@ -32324,7 +32324,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>263.7590256391499</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
@@ -32336,7 +32336,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32546,19 +32546,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>399.9031616963283</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>708.9385480032147</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
@@ -32567,10 +32567,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32786,16 +32786,16 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>209.9499448422525</v>
       </c>
       <c r="M24" t="n">
-        <v>732.4825987614915</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
@@ -32807,7 +32807,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
@@ -33023,22 +33023,22 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>196.3041720119</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
@@ -33187,7 +33187,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M29" t="n">
         <v>965.6463440175675</v>
@@ -33257,22 +33257,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>258.3858318060507</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
@@ -33284,7 +33284,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33494,7 +33494,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33503,7 +33503,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>240.4469701760392</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>142.1340339220183</v>
@@ -33512,7 +33512,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>303.4297552732313</v>
       </c>
       <c r="P33" t="n">
         <v>561.8765786214698</v>
@@ -33731,19 +33731,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
@@ -33752,13 +33752,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>314.5984986256103</v>
       </c>
       <c r="Q36" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>551.7051287319853</v>
+        <v>465.217062384076</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34138,7 +34138,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
         <v>981.2715114159425</v>
@@ -34205,7 +34205,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>126.8376266666667</v>
@@ -34217,7 +34217,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
@@ -34232,7 +34232,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>169.6252075171357</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34366,7 +34366,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
         <v>699.5441750817575</v>
@@ -34454,22 +34454,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>519.7862086120942</v>
       </c>
       <c r="O45" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34781,25 +34781,25 @@
         <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
+        <v>297.6803606378501</v>
+      </c>
+      <c r="M3" t="n">
+        <v>366.9313322820404</v>
+      </c>
+      <c r="N3" t="n">
         <v>640.5848321000387</v>
       </c>
-      <c r="M3" t="n">
-        <v>553.5225306839449</v>
-      </c>
-      <c r="N3" t="n">
-        <v>391.1970995928739</v>
-      </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>380.8714430074312</v>
       </c>
       <c r="P3" t="n">
         <v>249.6795291235322</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,16 +35012,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K6" t="n">
-        <v>379.9148430313197</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378502</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820405</v>
+        <v>553.5225306839449</v>
       </c>
       <c r="N6" t="n">
         <v>391.1970995928739</v>
@@ -35030,10 +35030,10 @@
         <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,10 +35091,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
         <v>278.0112915831069</v>
@@ -35103,7 +35103,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
         <v>262.6644876295069</v>
@@ -35112,7 +35112,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35249,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K9" t="n">
-        <v>379.9148430313197</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820405</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="O9" t="n">
         <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>6.454437538930121</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,10 +35328,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
         <v>278.0112915831069</v>
@@ -35340,7 +35340,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
         <v>262.6644876295069</v>
@@ -35349,7 +35349,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>232.5478090040315</v>
+        <v>232.5478090040318</v>
       </c>
       <c r="K11" t="n">
-        <v>399.7799124276249</v>
+        <v>399.7799124276252</v>
       </c>
       <c r="L11" t="n">
-        <v>533.2368392517096</v>
+        <v>533.2368392517101</v>
       </c>
       <c r="M11" t="n">
-        <v>625.3180581584696</v>
+        <v>625.3180581584701</v>
       </c>
       <c r="N11" t="n">
-        <v>640.0967705932476</v>
+        <v>640.096770593248</v>
       </c>
       <c r="O11" t="n">
-        <v>590.9552686077537</v>
+        <v>590.9552686077542</v>
       </c>
       <c r="P11" t="n">
-        <v>469.517153706244</v>
+        <v>469.5171537062443</v>
       </c>
       <c r="Q11" t="n">
-        <v>303.928488915109</v>
+        <v>303.9284889151094</v>
       </c>
       <c r="R11" t="n">
-        <v>90.52095692156593</v>
+        <v>90.5209569215661</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>119.4959557116374</v>
+        <v>119.4959557116375</v>
       </c>
       <c r="K12" t="n">
-        <v>283.1818887458963</v>
+        <v>283.1818887458965</v>
       </c>
       <c r="L12" t="n">
-        <v>2.984824693676687</v>
+        <v>427.5634418457675</v>
       </c>
       <c r="M12" t="n">
-        <v>518.4987618625144</v>
+        <v>518.4987618625148</v>
       </c>
       <c r="N12" t="n">
-        <v>546.7760680313805</v>
+        <v>546.7760680313809</v>
       </c>
       <c r="O12" t="n">
-        <v>477.7490432987363</v>
+        <v>36.96802155727825</v>
       </c>
       <c r="P12" t="n">
-        <v>363.9073766062166</v>
+        <v>363.9073766062169</v>
       </c>
       <c r="Q12" t="n">
-        <v>192.839013321163</v>
+        <v>192.8390133211631</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>16.20240458936573</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>61.18259316701833</v>
+        <v>61.18259316701844</v>
       </c>
       <c r="K13" t="n">
-        <v>231.6901150360912</v>
+        <v>231.6901150360913</v>
       </c>
       <c r="L13" t="n">
-        <v>352.5708868112335</v>
+        <v>352.5708868112338</v>
       </c>
       <c r="M13" t="n">
-        <v>382.2306297882114</v>
+        <v>382.2306297882116</v>
       </c>
       <c r="N13" t="n">
-        <v>378.6315512765379</v>
+        <v>378.6315512765381</v>
       </c>
       <c r="O13" t="n">
-        <v>333.5494446190455</v>
+        <v>333.5494446190457</v>
       </c>
       <c r="P13" t="n">
-        <v>261.650907441083</v>
+        <v>261.6509074410832</v>
       </c>
       <c r="Q13" t="n">
-        <v>96.87566713998352</v>
+        <v>96.87566713998361</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>282.3190661607201</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K14" t="n">
-        <v>474.3741250380623</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L14" t="n">
-        <v>625.7775560664388</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M14" t="n">
-        <v>728.2874363020579</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N14" t="n">
-        <v>744.7323009263696</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O14" t="n">
-        <v>689.7596327870083</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P14" t="n">
-        <v>553.8443926134826</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q14" t="n">
-        <v>367.254733440411</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R14" t="n">
-        <v>127.357360784584</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>149.139375506915</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M15" t="n">
-        <v>498.1805999812734</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>628.3797610094304</v>
+        <v>297.0239211855412</v>
       </c>
       <c r="O15" t="n">
-        <v>552.4004797981759</v>
+        <v>552.4004797981761</v>
       </c>
       <c r="P15" t="n">
-        <v>423.821735783915</v>
+        <v>423.8217357839152</v>
       </c>
       <c r="Q15" t="n">
-        <v>232.8901757426736</v>
+        <v>232.8901757426738</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>79.77992211066046</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K16" t="n">
-        <v>262.2512393642056</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L16" t="n">
-        <v>391.6786041243779</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M16" t="n">
-        <v>423.4642343883427</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N16" t="n">
-        <v>418.8847129209159</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O16" t="n">
-        <v>370.7297545606359</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P16" t="n">
-        <v>293.4650856931358</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q16" t="n">
-        <v>118.9021551044798</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35957,13 +35957,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35972,7 +35972,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>132.4173135558165</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
@@ -35984,7 +35984,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36194,19 +36194,19 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>261.3487819164541</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>566.8045140811964</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
@@ -36215,10 +36215,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36434,16 +36434,16 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>71.39556506237828</v>
       </c>
       <c r="M24" t="n">
-        <v>590.3485648394733</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
@@ -36455,7 +36455,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>37.00975247789211</v>
@@ -36671,22 +36671,22 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>57.74979223202579</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
@@ -36835,7 +36835,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M29" t="n">
         <v>735.3001107902948</v>
@@ -36905,22 +36905,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>120.5443928316917</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
@@ -36932,7 +36932,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37151,7 +37151,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>101.892590396165</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -37160,7 +37160,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>160.8335108287869</v>
       </c>
       <c r="P33" t="n">
         <v>427.9021712071395</v>
@@ -37379,19 +37379,19 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
@@ -37400,13 +37400,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>180.6240912112801</v>
       </c>
       <c r="Q36" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>409.1088842875408</v>
+        <v>322.6208179396315</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37786,7 +37786,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -37865,7 +37865,7 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
@@ -37880,7 +37880,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>23.94570355317173</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38014,7 +38014,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
         <v>479.454324036777</v>
@@ -38102,22 +38102,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>388.4444965287609</v>
       </c>
       <c r="O45" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
